--- a/заказы/статистика филиалы/2023/08,23/30,08,23 КИ/дв 30,08,23 мррсч.xlsx
+++ b/заказы/статистика филиалы/2023/08,23/30,08,23 КИ/дв 30,08,23 мррсч.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\заказы\статистика филиалы\2023\08,23\30,08,23 КИ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2023\08,23\30,08,23 КИ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2893DB72-F593-4092-ACF6-CC63DD5F36E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47606F4D-E5BF-4327-951B-FF52BE4A38EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="201" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="86">
   <si>
     <t>Период: 23.08.2023 - 30.08.2023</t>
   </si>
@@ -291,6 +291,9 @@
   </si>
   <si>
     <t>Сосиски Сочинки Сливочные ТМ Стародворье в оболочке амицел в модифицированной газовой среде 0,4 кг. Мясной продукт. Колбасные изделия вареные охлажденные ТУ 9213-003-14709788-08 ЗАО "Стародворские колбасы"</t>
+  </si>
+  <si>
+    <t>акция:</t>
   </si>
 </sst>
 </file>
@@ -2988,13 +2991,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr autoPageBreaks="0"/>
+    <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:X68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X51" sqref="X51"/>
+      <selection pane="bottomLeft" sqref="A1:V1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
@@ -3022,6 +3025,12 @@
     </row>
     <row r="2" spans="1:22" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
+      <c r="U2" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="V2" s="22">
+        <v>13920</v>
+      </c>
     </row>
     <row r="3" spans="1:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -3304,7 +3313,7 @@
         <f t="shared" ref="U7:U68" si="5">M7*G7</f>
         <v>200</v>
       </c>
-      <c r="V7" s="16">
+      <c r="V7" s="22">
         <f t="shared" ref="V7:V68" si="6">N7*G7</f>
         <v>500</v>
       </c>
@@ -3369,7 +3378,7 @@
         <f t="shared" si="5"/>
         <v>130</v>
       </c>
-      <c r="V8" s="16">
+      <c r="V8" s="22">
         <f t="shared" si="6"/>
         <v>500</v>
       </c>
@@ -4266,7 +4275,7 @@
         <f t="shared" si="5"/>
         <v>180</v>
       </c>
-      <c r="V23" s="16">
+      <c r="V23" s="22">
         <f t="shared" si="6"/>
         <v>1000</v>
       </c>
@@ -4396,7 +4405,7 @@
         <f t="shared" si="5"/>
         <v>40</v>
       </c>
-      <c r="V25" s="16">
+      <c r="V25" s="22">
         <f t="shared" si="6"/>
         <v>1000</v>
       </c>
@@ -4461,7 +4470,7 @@
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="V26" s="16">
+      <c r="V26" s="22">
         <f t="shared" si="6"/>
         <v>1000</v>
       </c>
@@ -4652,7 +4661,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V29" s="16">
+      <c r="V29" s="22">
         <f t="shared" si="6"/>
         <v>800</v>
       </c>
@@ -4713,7 +4722,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V30" s="16">
+      <c r="V30" s="22">
         <f t="shared" si="6"/>
         <v>800</v>
       </c>
@@ -4774,7 +4783,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V31" s="16">
+      <c r="V31" s="22">
         <f t="shared" si="6"/>
         <v>1000</v>
       </c>
@@ -5557,7 +5566,7 @@
         <f t="shared" si="5"/>
         <v>228</v>
       </c>
-      <c r="V44" s="16">
+      <c r="V44" s="22">
         <f t="shared" si="6"/>
         <v>400</v>
       </c>
@@ -5681,7 +5690,7 @@
         <f t="shared" si="5"/>
         <v>232</v>
       </c>
-      <c r="V46" s="16">
+      <c r="V46" s="22">
         <f t="shared" si="6"/>
         <v>400</v>
       </c>
@@ -5746,7 +5755,7 @@
         <f t="shared" si="5"/>
         <v>212</v>
       </c>
-      <c r="V47" s="16">
+      <c r="V47" s="22">
         <f t="shared" si="6"/>
         <v>400</v>
       </c>
@@ -5868,7 +5877,7 @@
         <f t="shared" si="5"/>
         <v>210</v>
       </c>
-      <c r="V49" s="16">
+      <c r="V49" s="22">
         <f t="shared" si="6"/>
         <v>500</v>
       </c>
@@ -5998,7 +6007,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V51" s="16">
+      <c r="V51" s="22">
         <f t="shared" si="6"/>
         <v>1500</v>
       </c>
@@ -6374,7 +6383,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V58" s="16">
+      <c r="V58" s="22">
         <f t="shared" si="6"/>
         <v>1000</v>
       </c>
@@ -6396,7 +6405,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V59" s="16">
+      <c r="V59" s="22">
         <f t="shared" si="6"/>
         <v>500</v>
       </c>
@@ -6418,7 +6427,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V60" s="16">
+      <c r="V60" s="22">
         <f t="shared" si="6"/>
         <v>420</v>
       </c>
@@ -6440,7 +6449,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V61" s="16">
+      <c r="V61" s="22">
         <f t="shared" si="6"/>
         <v>500</v>
       </c>
@@ -6462,7 +6471,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V62" s="16">
+      <c r="V62" s="22">
         <f t="shared" si="6"/>
         <v>500</v>
       </c>
@@ -6484,7 +6493,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V63" s="16">
+      <c r="V63" s="22">
         <f t="shared" si="6"/>
         <v>200</v>
       </c>
@@ -6506,7 +6515,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V64" s="16">
+      <c r="V64" s="22">
         <f t="shared" si="6"/>
         <v>200</v>
       </c>
@@ -6528,7 +6537,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V65" s="16">
+      <c r="V65" s="22">
         <f t="shared" si="6"/>
         <v>200</v>
       </c>
@@ -6550,7 +6559,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V66" s="16">
+      <c r="V66" s="22">
         <f t="shared" si="6"/>
         <v>200</v>
       </c>
@@ -6572,7 +6581,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V67" s="16">
+      <c r="V67" s="22">
         <f t="shared" si="6"/>
         <v>200</v>
       </c>
@@ -6594,14 +6603,14 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V68" s="16">
+      <c r="V68" s="22">
         <f t="shared" si="6"/>
         <v>200</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="1" top="0.75" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.35433070866141736" right="0.39370078740157483" top="0.74803149606299213" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="82" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
